--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS7.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS7.xlsx
@@ -19,7 +19,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="137">
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
   <si>
     <t>Signal_Value_48</t>
   </si>
@@ -219,6 +327,33 @@
     <t>Signal_Value_113</t>
   </si>
   <si>
+    <t>Signal_Value_114</t>
+  </si>
+  <si>
+    <t>Signal_Value_115</t>
+  </si>
+  <si>
+    <t>Signal_Value_116</t>
+  </si>
+  <si>
+    <t>Signal_Value_117</t>
+  </si>
+  <si>
+    <t>Signal_Value_118</t>
+  </si>
+  <si>
+    <t>Signal_Value_119</t>
+  </si>
+  <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
+    <t>Signal_Value_121</t>
+  </si>
+  <si>
+    <t>Signal_Value_122</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -291,10 +426,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -655,15 +787,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BO6"/>
+  <dimension ref="A1:DH6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:67">
+    <row r="1" spans="1:112">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -863,10 +995,145 @@
       <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="2" spans="1:67">
+    <row r="2" spans="1:112">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -875,201 +1142,336 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1453925105575451</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1323575153799912</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.005255056897924555</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.003776425080091427</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02170180583210097</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08405783125066756</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.09149397751894747</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0265699291755543</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.007225671254000215</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.000291145042517706</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.08493960694437014</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.03695252556054997</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.005514438710117018</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00422646044314363</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.1566612906346883</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.02826905495994202</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0007732041990404194</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.01672873298431202</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.02293536896070191</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.06615019308643948</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.01118898041318937</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.001992158070196756</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.01091911870290607</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.0003229765968188463</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.01168483216532321</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.01997993813821507</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.0007267269254243403</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>7.305275999310095E-05</v>
       </c>
       <c r="AI2">
-        <v>0.003064737312123608</v>
+        <v>0.00183947175528773</v>
       </c>
       <c r="AJ2">
-        <v>0.020003626300274</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.005723568154562069</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.01130999530986978</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0006047978026854178</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.03528081281249355</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>9.441563789876018E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.01822979565539825</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.04476976598637849</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0007935959909830863</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.08209402891688704</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.1124181229570088</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.003083529766974674</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.02536205129003581</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.01097659248184927</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.08362883870180596</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.1391437252288633</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.001979188724072103</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.08182396360398186</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.009809530334008212</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.001949339552645512</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.01219535430133314</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.05603521941220418</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.01740976067603946</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.01099894983685285</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.01619019571888396</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.005433162272485526</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.003775235751942877</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.03407682808172431</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.06035129092622479</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.05853377668089021</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.03285620382061875</v>
+        <v>0</v>
       </c>
       <c r="BO2">
         <v>0</v>
       </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:67">
+    <row r="3" spans="1:112">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1171,108 +1573,243 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.00903676717043753</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.01232181735877634</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.002721914199642603</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.02745193805214884</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.002651127581554632</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.01646915081366053</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.02821916791031391</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.01210322821723227</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.007486275039806908</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.01536918351643675</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.06103992251362391</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.1601614415001789</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>5.675562003645054E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.07054360980327444</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.02024728212432247</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.01722893878239912</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.07094751065561528</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.008488322593780602</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.04855567647644551</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0219591950489413</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.008752102272442696</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.000764207372988615</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.08143535786633144</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.04158797753416754</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.009688396299906601</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.02038427040449605</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.01838659593089903</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0008135718385921861</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.03955928935046125</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.05914725850105725</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.06085708098658525</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.04561574672147641</v>
+        <v>0</v>
       </c>
       <c r="BO3">
         <v>0</v>
       </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0.05142862177860275</v>
+      </c>
+      <c r="CD3">
+        <v>0.008746684184080004</v>
+      </c>
+      <c r="CE3">
+        <v>0.1368964682787736</v>
+      </c>
+      <c r="CF3">
+        <v>0.03753972474631011</v>
+      </c>
+      <c r="CG3">
+        <v>0.0005558150618215173</v>
+      </c>
+      <c r="CH3">
+        <v>0.03163136156058002</v>
+      </c>
+      <c r="CI3">
+        <v>0.002463558857143409</v>
+      </c>
+      <c r="CJ3">
+        <v>0.01351424041068647</v>
+      </c>
+      <c r="CK3">
+        <v>0.07665279918713364</v>
+      </c>
+      <c r="CL3">
+        <v>0.04432768579414047</v>
+      </c>
+      <c r="CM3">
+        <v>0.0002813386586957374</v>
+      </c>
+      <c r="CN3">
+        <v>0.06486614391851908</v>
+      </c>
+      <c r="CO3">
+        <v>0.08793961259826338</v>
+      </c>
+      <c r="CP3">
+        <v>0.001315459100783849</v>
+      </c>
+      <c r="CQ3">
+        <v>0.007114148935522043</v>
+      </c>
+      <c r="CR3">
+        <v>0.07351598347372303</v>
+      </c>
+      <c r="CS3">
+        <v>0.1219781598180946</v>
+      </c>
+      <c r="CT3">
+        <v>0.0181048781987518</v>
+      </c>
+      <c r="CU3">
+        <v>0.04754445985287108</v>
+      </c>
+      <c r="CV3">
+        <v>0.04466513949149015</v>
+      </c>
+      <c r="CW3">
+        <v>0.01690329715066798</v>
+      </c>
+      <c r="CX3">
+        <v>0.04011055759346001</v>
+      </c>
+      <c r="CY3">
+        <v>0.003582495413619468</v>
+      </c>
+      <c r="CZ3">
+        <v>0.008928764910369041</v>
+      </c>
+      <c r="DA3">
+        <v>3.263395457497614E-05</v>
+      </c>
+      <c r="DB3">
+        <v>0.005758662847786598</v>
+      </c>
+      <c r="DC3">
+        <v>0.01483679031302826</v>
+      </c>
+      <c r="DD3">
+        <v>0.004590397815852493</v>
+      </c>
+      <c r="DE3">
+        <v>0.02551045900621687</v>
+      </c>
+      <c r="DF3">
+        <v>0.003679049980276947</v>
+      </c>
+      <c r="DG3">
+        <v>0.004491451203105217</v>
+      </c>
+      <c r="DH3">
+        <v>0.0004931559050555962</v>
+      </c>
     </row>
-    <row r="4" spans="1:67">
+    <row r="4" spans="1:112">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1281,100 +1818,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.009731673276847539</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.009990203637070821</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0003765011724636383</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.001150435245285006</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.008112223601224993</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001198144836638541</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0009490012992119476</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.003014982175287607</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.07767325849160223</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.01747283913184359</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.102936202813449</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1522950984834933</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>3.552559796204243E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.009537054308119896</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.027194921021712</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.05910031063306146</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0511416322710893</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.005223549958524428</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.005646095308258553</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.01303426494679941</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.002418942691769752</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>8.584436609429882E-06</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0405707915799449</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.05966781279117493</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04964425392609444</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.03457091758278919</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.02729366786538566</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.007918543680378125</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.01338987708235105</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.07782607687526547</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.08213274563567363</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0487438676426179</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1472,10 +2009,145 @@
       <c r="BO4">
         <v>0</v>
       </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0.06058501561365743</v>
+      </c>
+      <c r="CD4">
+        <v>0.118097386978428</v>
+      </c>
+      <c r="CE4">
+        <v>0.02933094472525606</v>
+      </c>
+      <c r="CF4">
+        <v>0.02024263234670314</v>
+      </c>
+      <c r="CG4">
+        <v>0.0122722685415587</v>
+      </c>
+      <c r="CH4">
+        <v>0.03429728999955717</v>
+      </c>
+      <c r="CI4">
+        <v>0.0009440969333203432</v>
+      </c>
+      <c r="CJ4">
+        <v>0.05871255670523411</v>
+      </c>
+      <c r="CK4">
+        <v>0.04544456391342244</v>
+      </c>
+      <c r="CL4">
+        <v>0.009681146735781616</v>
+      </c>
+      <c r="CM4">
+        <v>0.006612516630632339</v>
+      </c>
+      <c r="CN4">
+        <v>0.1425967156333758</v>
+      </c>
+      <c r="CO4">
+        <v>0.008177959149536567</v>
+      </c>
+      <c r="CP4">
+        <v>0.01965153240400199</v>
+      </c>
+      <c r="CQ4">
+        <v>0.004870675549672673</v>
+      </c>
+      <c r="CR4">
+        <v>0.181460445043778</v>
+      </c>
+      <c r="CS4">
+        <v>0.04521408743686706</v>
+      </c>
+      <c r="CT4">
+        <v>0.0028716709371723</v>
+      </c>
+      <c r="CU4">
+        <v>0.07409579533058507</v>
+      </c>
+      <c r="CV4">
+        <v>0.01456297438249132</v>
+      </c>
+      <c r="CW4">
+        <v>0.03608769114075521</v>
+      </c>
+      <c r="CX4">
+        <v>0.008592280649625476</v>
+      </c>
+      <c r="CY4">
+        <v>0.001429949318040327</v>
+      </c>
+      <c r="CZ4">
+        <v>9.341860029052064E-05</v>
+      </c>
+      <c r="DA4">
+        <v>0.007993896318899742</v>
+      </c>
+      <c r="DB4">
+        <v>0.00162980550447899</v>
+      </c>
+      <c r="DC4">
+        <v>0.02416758545771982</v>
+      </c>
+      <c r="DD4">
+        <v>0.01246077356701657</v>
+      </c>
+      <c r="DE4">
+        <v>0.01128194110873319</v>
+      </c>
+      <c r="DF4">
+        <v>0.0006456926634175059</v>
+      </c>
+      <c r="DG4">
+        <v>0.004899840968595858</v>
+      </c>
+      <c r="DH4">
+        <v>0.0009948497113947844</v>
+      </c>
     </row>
-    <row r="5" spans="1:67">
+    <row r="5" spans="1:112">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1577,108 +2249,243 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.001637087624340661</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.03705381135379318</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.02513828766566415</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.01095114284902485</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.003005716762061674</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.02554403440301519</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.005644528757234446</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0005954353539916959</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.01615151799109013</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.003745696173018521</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0959829301594896</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.07245315758412386</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0001123917873511361</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.03564477844545121</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.04180794517058025</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.08385689612003981</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.100057774551607</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.01143364702813863</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.04724872028920594</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.08729943903272258</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.02598271722973995</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.03673147558712859</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.06371877512984282</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.02063612942811723</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0006728735571562535</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>5.320685696811926E-06</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0001997589745258389</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.007595954332211528</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.03606608905871746</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.04671921054597941</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.03419504753122991</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.02211170883770949</v>
+        <v>0</v>
       </c>
       <c r="BO5">
         <v>0</v>
       </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0.1537507911295412</v>
+      </c>
+      <c r="CD5">
+        <v>0.02910611033908196</v>
+      </c>
+      <c r="CE5">
+        <v>0.1313770558812621</v>
+      </c>
+      <c r="CF5">
+        <v>0.01431701300054266</v>
+      </c>
+      <c r="CG5">
+        <v>0.003296290719696325</v>
+      </c>
+      <c r="CH5">
+        <v>0.0169749271479799</v>
+      </c>
+      <c r="CI5">
+        <v>0.006050655267965344</v>
+      </c>
+      <c r="CJ5">
+        <v>0.04967272024596062</v>
+      </c>
+      <c r="CK5">
+        <v>0.08863488414094459</v>
+      </c>
+      <c r="CL5">
+        <v>0.02134298064480979</v>
+      </c>
+      <c r="CM5">
+        <v>0.003710010685782138</v>
+      </c>
+      <c r="CN5">
+        <v>0.08049658908978063</v>
+      </c>
+      <c r="CO5">
+        <v>0.04302084630826356</v>
+      </c>
+      <c r="CP5">
+        <v>0.00416225507702454</v>
+      </c>
+      <c r="CQ5">
+        <v>0.0002144108429088818</v>
+      </c>
+      <c r="CR5">
+        <v>0.0735159033513013</v>
+      </c>
+      <c r="CS5">
+        <v>0.05316306194527636</v>
+      </c>
+      <c r="CT5">
+        <v>0.005714335363357094</v>
+      </c>
+      <c r="CU5">
+        <v>0.04237577131079353</v>
+      </c>
+      <c r="CV5">
+        <v>0.03982512421289369</v>
+      </c>
+      <c r="CW5">
+        <v>0.03685044520538667</v>
+      </c>
+      <c r="CX5">
+        <v>0.04922929567725672</v>
+      </c>
+      <c r="CY5">
+        <v>0.0001299407579615443</v>
+      </c>
+      <c r="CZ5">
+        <v>0.0003571407811028119</v>
+      </c>
+      <c r="DA5">
+        <v>0.004621172948359816</v>
+      </c>
+      <c r="DB5">
+        <v>0.008008460260232471</v>
+      </c>
+      <c r="DC5">
+        <v>0.02214728813904369</v>
+      </c>
+      <c r="DD5">
+        <v>0.01192384398147828</v>
+      </c>
+      <c r="DE5">
+        <v>0.002876741490626964</v>
+      </c>
+      <c r="DF5">
+        <v>0.0001860883556661854</v>
+      </c>
+      <c r="DG5">
+        <v>0.001022060496276877</v>
+      </c>
+      <c r="DH5">
+        <v>0.001925785201441698</v>
+      </c>
     </row>
-    <row r="6" spans="1:67">
+    <row r="6" spans="1:112">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1783,100 +2590,235 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.03121886024713409</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.06715335333684218</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.000525120550363703</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.004344112411145788</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.02615905873810754</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>3.720257993342739E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.00400802142881493</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.00548562409302032</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.001969416315258928</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.08524445009122728</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.06427693090964073</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.00640204711812731</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.04090148984236824</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.04981082179288659</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.09644215689748976</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.1002405445919809</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.002957377712172655</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.09282178884971196</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.05568107293578857</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.01660059757072701</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.04018250989564413</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.04348218981273847</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.003388318004885153</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>3.385631538519146E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0002528598965212219</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0004908140115866017</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.01934554158894905</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.05239151814713951</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.04686590829592872</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.02900409507518722</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.01046598221701235</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.001816358726280504</v>
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0.1173126306627691</v>
+      </c>
+      <c r="CD6">
+        <v>0.0370227909691902</v>
+      </c>
+      <c r="CE6">
+        <v>0.03475391355299866</v>
+      </c>
+      <c r="CF6">
+        <v>0.0004088881443936629</v>
+      </c>
+      <c r="CG6">
+        <v>0.02434802086816537</v>
+      </c>
+      <c r="CH6">
+        <v>0.0009181904781745319</v>
+      </c>
+      <c r="CI6">
+        <v>0.04202217617439134</v>
+      </c>
+      <c r="CJ6">
+        <v>0.03834899624007633</v>
+      </c>
+      <c r="CK6">
+        <v>0.02772315545068037</v>
+      </c>
+      <c r="CL6">
+        <v>0.003948132343422313</v>
+      </c>
+      <c r="CM6">
+        <v>0.020580979633719</v>
+      </c>
+      <c r="CN6">
+        <v>0.02685043949243228</v>
+      </c>
+      <c r="CO6">
+        <v>0.1103411011453642</v>
+      </c>
+      <c r="CP6">
+        <v>0.002587077641916656</v>
+      </c>
+      <c r="CQ6">
+        <v>0.01864350883691828</v>
+      </c>
+      <c r="CR6">
+        <v>0.07648792754674119</v>
+      </c>
+      <c r="CS6">
+        <v>0.1200097885702861</v>
+      </c>
+      <c r="CT6">
+        <v>0.001317107360970932</v>
+      </c>
+      <c r="CU6">
+        <v>0.0812253262241541</v>
+      </c>
+      <c r="CV6">
+        <v>0.006580296504993989</v>
+      </c>
+      <c r="CW6">
+        <v>0.0111636008537367</v>
+      </c>
+      <c r="CX6">
+        <v>0.08442690346135129</v>
+      </c>
+      <c r="CY6">
+        <v>0.004517987579192819</v>
+      </c>
+      <c r="CZ6">
+        <v>0.01398345782194758</v>
+      </c>
+      <c r="DA6">
+        <v>0.002403532601066596</v>
+      </c>
+      <c r="DB6">
+        <v>0.001269199973451955</v>
+      </c>
+      <c r="DC6">
+        <v>0.03535808459092186</v>
+      </c>
+      <c r="DD6">
+        <v>0.0001514278866601269</v>
+      </c>
+      <c r="DE6">
+        <v>0.03387713275770964</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0.0165760780646309</v>
+      </c>
+      <c r="DH6">
+        <v>0.004842146567572109</v>
       </c>
     </row>
   </sheetData>
@@ -1886,15 +2828,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BO6"/>
+  <dimension ref="A1:DH6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:67">
+    <row r="1" spans="1:112">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2094,10 +3036,145 @@
       <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="2" spans="1:67">
+    <row r="2" spans="1:112">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2106,190 +3183,190 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1453925105575451</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.2777500259375363</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.2830050828354608</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.2867815079155522</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3084833137476532</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3084833137476532</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3925411449983208</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4840351225172682</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.5106050516928226</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.5178307229468228</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.5181218679893405</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.6030614749337107</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.6400140004942606</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.6455284392043776</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.6497548996475213</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.8064161902822097</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.8346852452421517</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.8354584494411921</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.8521871824255041</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.875122551386206</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.9412727444726454</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.9524617248858348</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.9544538829560315</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.9544538829560315</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.9653730016589376</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.9656959782557564</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.9773808104210796</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.9973607485592947</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.9973607485592947</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.998087475484719</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.9981605282447121</v>
       </c>
       <c r="AI2">
-        <v>0.003064737312123608</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>0.02306836361239761</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK2">
-        <v>0.02879193176695968</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL2">
-        <v>0.04010192707682947</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM2">
-        <v>0.04070672487951488</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN2">
-        <v>0.07598753769200844</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO2">
-        <v>0.07608195332990721</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP2">
-        <v>0.09431174898530545</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ2">
-        <v>0.1390815149716839</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR2">
-        <v>0.139875110962667</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS2">
-        <v>0.2219691398795541</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT2">
-        <v>0.3343872628365629</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU2">
-        <v>0.3374707926035376</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV2">
-        <v>0.3628328438935734</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW2">
-        <v>0.3738094363754227</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX2">
-        <v>0.4574382750772287</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY2">
-        <v>0.596582000306092</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ2">
-        <v>0.5985611890301641</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA2">
-        <v>0.680385152634146</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB2">
-        <v>0.6901946829681542</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC2">
-        <v>0.6921440225207998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD2">
-        <v>0.7043393768221329</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE2">
-        <v>0.7603745962343371</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF2">
-        <v>0.7777843569103766</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG2">
-        <v>0.7887833067472295</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH2">
-        <v>0.8049735024661134</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI2">
-        <v>0.810406664738599</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ2">
-        <v>0.8141819004905418</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK2">
-        <v>0.8482587285722661</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL2">
-        <v>0.908610019498491</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM2">
-        <v>0.9671437961793812</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN2">
         <v>0.9999999999999999</v>
@@ -2297,10 +3374,145 @@
       <c r="BO2">
         <v>0.9999999999999999</v>
       </c>
+      <c r="BP2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BQ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BR2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BS2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BT2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BU2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BV2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BW2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BX2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BY2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BZ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CA2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CB2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CC2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CD2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CE2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CF2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CG2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CH2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CI2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CJ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CK2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CL2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CM2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CN2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CO2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CP2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CQ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CR2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CS2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CT2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CU2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CV2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CW2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CX2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CY2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CZ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DA2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DB2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DC2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DD2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DE2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DF2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DG2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DH2">
+        <v>0.9999999999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:67">
+    <row r="3" spans="1:112">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2402,514 +3614,919 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.00903676717043753</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.02135858452921387</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.02408049872885647</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0515324367810053</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.05418356436255994</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.07065271517622047</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.09887188308653438</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.1109751113037667</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.1184613863435736</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.1338305698600103</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.1948704923736342</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.3550319338738132</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.3550376094358168</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.4255812192390913</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.4458285013634137</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.4630574401458128</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.5340049508014282</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.5424932733952088</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.5910489498716543</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.6130081449205956</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.6217602471930384</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.622524454566027</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.7039598124323585</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.745547789966526</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.7552361862664326</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.7756204566709287</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.7940070526018278</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.79482062444042</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.8343799137908813</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.8935271722919386</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.9543842532785238</v>
+        <v>0</v>
       </c>
       <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0.05142862177860275</v>
+      </c>
+      <c r="CD3">
+        <v>0.06017530596268276</v>
+      </c>
+      <c r="CE3">
+        <v>0.1970717742414564</v>
+      </c>
+      <c r="CF3">
+        <v>0.2346114989877665</v>
+      </c>
+      <c r="CG3">
+        <v>0.235167314049588</v>
+      </c>
+      <c r="CH3">
+        <v>0.266798675610168</v>
+      </c>
+      <c r="CI3">
+        <v>0.2692622344673114</v>
+      </c>
+      <c r="CJ3">
+        <v>0.2827764748779979</v>
+      </c>
+      <c r="CK3">
+        <v>0.3594292740651315</v>
+      </c>
+      <c r="CL3">
+        <v>0.403756959859272</v>
+      </c>
+      <c r="CM3">
+        <v>0.4040382985179677</v>
+      </c>
+      <c r="CN3">
+        <v>0.4689044424364868</v>
+      </c>
+      <c r="CO3">
+        <v>0.5568440550347502</v>
+      </c>
+      <c r="CP3">
+        <v>0.5581595141355341</v>
+      </c>
+      <c r="CQ3">
+        <v>0.5652736630710562</v>
+      </c>
+      <c r="CR3">
+        <v>0.6387896465447792</v>
+      </c>
+      <c r="CS3">
+        <v>0.7607678063628738</v>
+      </c>
+      <c r="CT3">
+        <v>0.7788726845616256</v>
+      </c>
+      <c r="CU3">
+        <v>0.8264171444144967</v>
+      </c>
+      <c r="CV3">
+        <v>0.8710822839059869</v>
+      </c>
+      <c r="CW3">
+        <v>0.8879855810566548</v>
+      </c>
+      <c r="CX3">
+        <v>0.9280961386501149</v>
+      </c>
+      <c r="CY3">
+        <v>0.9316786340637343</v>
+      </c>
+      <c r="CZ3">
+        <v>0.9406073989741034</v>
+      </c>
+      <c r="DA3">
+        <v>0.9406400329286784</v>
+      </c>
+      <c r="DB3">
+        <v>0.946398695776465</v>
+      </c>
+      <c r="DC3">
+        <v>0.9612354860894933</v>
+      </c>
+      <c r="DD3">
+        <v>0.9658258839053457</v>
+      </c>
+      <c r="DE3">
+        <v>0.9913363429115626</v>
+      </c>
+      <c r="DF3">
+        <v>0.9950153928918395</v>
+      </c>
+      <c r="DG3">
+        <v>0.9995068440949447</v>
+      </c>
+      <c r="DH3">
         <v>1</v>
       </c>
-      <c r="BO3">
+    </row>
+    <row r="4" spans="1:112">
+      <c r="A4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0.06058501561365743</v>
+      </c>
+      <c r="CD4">
+        <v>0.1786824025920854</v>
+      </c>
+      <c r="CE4">
+        <v>0.2080133473173414</v>
+      </c>
+      <c r="CF4">
+        <v>0.2282559796640446</v>
+      </c>
+      <c r="CG4">
+        <v>0.2405282482056033</v>
+      </c>
+      <c r="CH4">
+        <v>0.2748255382051604</v>
+      </c>
+      <c r="CI4">
+        <v>0.2757696351384808</v>
+      </c>
+      <c r="CJ4">
+        <v>0.3344821918437149</v>
+      </c>
+      <c r="CK4">
+        <v>0.3799267557571374</v>
+      </c>
+      <c r="CL4">
+        <v>0.389607902492919</v>
+      </c>
+      <c r="CM4">
+        <v>0.3962204191235513</v>
+      </c>
+      <c r="CN4">
+        <v>0.5388171347569271</v>
+      </c>
+      <c r="CO4">
+        <v>0.5469950939064636</v>
+      </c>
+      <c r="CP4">
+        <v>0.5666466263104656</v>
+      </c>
+      <c r="CQ4">
+        <v>0.5715173018601383</v>
+      </c>
+      <c r="CR4">
+        <v>0.7529777469039163</v>
+      </c>
+      <c r="CS4">
+        <v>0.7981918343407833</v>
+      </c>
+      <c r="CT4">
+        <v>0.8010635052779557</v>
+      </c>
+      <c r="CU4">
+        <v>0.8751593006085407</v>
+      </c>
+      <c r="CV4">
+        <v>0.8897222749910321</v>
+      </c>
+      <c r="CW4">
+        <v>0.9258099661317872</v>
+      </c>
+      <c r="CX4">
+        <v>0.9344022467814127</v>
+      </c>
+      <c r="CY4">
+        <v>0.935832196099453</v>
+      </c>
+      <c r="CZ4">
+        <v>0.9359256146997436</v>
+      </c>
+      <c r="DA4">
+        <v>0.9439195110186434</v>
+      </c>
+      <c r="DB4">
+        <v>0.9455493165231224</v>
+      </c>
+      <c r="DC4">
+        <v>0.9697169019808421</v>
+      </c>
+      <c r="DD4">
+        <v>0.9821776755478587</v>
+      </c>
+      <c r="DE4">
+        <v>0.9934596166565919</v>
+      </c>
+      <c r="DF4">
+        <v>0.9941053093200094</v>
+      </c>
+      <c r="DG4">
+        <v>0.9990051502886053</v>
+      </c>
+      <c r="DH4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:67">
-      <c r="A4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.009731673276847539</v>
-      </c>
-      <c r="E4">
-        <v>0.01972187691391836</v>
-      </c>
-      <c r="F4">
-        <v>0.020098378086382</v>
-      </c>
-      <c r="G4">
-        <v>0.021248813331667</v>
-      </c>
-      <c r="H4">
-        <v>0.029361036932892</v>
-      </c>
-      <c r="I4">
-        <v>0.03055918176953054</v>
-      </c>
-      <c r="J4">
-        <v>0.03150818306874249</v>
-      </c>
-      <c r="K4">
-        <v>0.0345231652440301</v>
-      </c>
-      <c r="L4">
-        <v>0.1121964237356323</v>
-      </c>
-      <c r="M4">
-        <v>0.1296692628674759</v>
-      </c>
-      <c r="N4">
-        <v>0.2326054656809249</v>
-      </c>
-      <c r="O4">
-        <v>0.3849005641644181</v>
-      </c>
-      <c r="P4">
-        <v>0.3849360897623802</v>
-      </c>
-      <c r="Q4">
-        <v>0.3944731440705001</v>
-      </c>
-      <c r="R4">
-        <v>0.4216680650922121</v>
-      </c>
-      <c r="S4">
-        <v>0.4807683757252736</v>
-      </c>
-      <c r="T4">
-        <v>0.5319100079963629</v>
-      </c>
-      <c r="U4">
-        <v>0.5371335579548874</v>
-      </c>
-      <c r="V4">
-        <v>0.5427796532631459</v>
-      </c>
-      <c r="W4">
-        <v>0.5558139182099453</v>
-      </c>
-      <c r="X4">
-        <v>0.5582328609017151</v>
-      </c>
-      <c r="Y4">
-        <v>0.5582414453383245</v>
-      </c>
-      <c r="Z4">
-        <v>0.5988122369182695</v>
-      </c>
-      <c r="AA4">
-        <v>0.6584800497094444</v>
-      </c>
-      <c r="AB4">
-        <v>0.7081243036355388</v>
-      </c>
-      <c r="AC4">
-        <v>0.742695221218328</v>
-      </c>
-      <c r="AD4">
-        <v>0.7699888890837137</v>
-      </c>
-      <c r="AE4">
-        <v>0.7779074327640918</v>
-      </c>
-      <c r="AF4">
-        <v>0.7912973098464429</v>
-      </c>
-      <c r="AG4">
-        <v>0.8691233867217083</v>
-      </c>
-      <c r="AH4">
-        <v>0.9512561323573819</v>
-      </c>
-      <c r="AI4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AJ4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AK4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AL4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AM4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AN4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AO4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AP4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AQ4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AR4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AS4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AT4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AU4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AV4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AW4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AX4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AY4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AZ4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BA4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BB4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BC4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BD4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BE4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BF4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BG4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BH4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BI4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BJ4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BK4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BL4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BM4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BN4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BO4">
-        <v>0.9999999999999998</v>
+    <row r="5" spans="1:112">
+      <c r="A5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0.1537507911295412</v>
+      </c>
+      <c r="CD5">
+        <v>0.1828569014686232</v>
+      </c>
+      <c r="CE5">
+        <v>0.3142339573498854</v>
+      </c>
+      <c r="CF5">
+        <v>0.328550970350428</v>
+      </c>
+      <c r="CG5">
+        <v>0.3318472610701244</v>
+      </c>
+      <c r="CH5">
+        <v>0.3488221882181042</v>
+      </c>
+      <c r="CI5">
+        <v>0.3548728434860696</v>
+      </c>
+      <c r="CJ5">
+        <v>0.4045455637320302</v>
+      </c>
+      <c r="CK5">
+        <v>0.4931804478729748</v>
+      </c>
+      <c r="CL5">
+        <v>0.5145234285177845</v>
+      </c>
+      <c r="CM5">
+        <v>0.5182334392035667</v>
+      </c>
+      <c r="CN5">
+        <v>0.5987300282933473</v>
+      </c>
+      <c r="CO5">
+        <v>0.6417508746016108</v>
+      </c>
+      <c r="CP5">
+        <v>0.6459131296786353</v>
+      </c>
+      <c r="CQ5">
+        <v>0.6461275405215442</v>
+      </c>
+      <c r="CR5">
+        <v>0.7196434438728455</v>
+      </c>
+      <c r="CS5">
+        <v>0.7728065058181218</v>
+      </c>
+      <c r="CT5">
+        <v>0.7785208411814789</v>
+      </c>
+      <c r="CU5">
+        <v>0.8208966124922724</v>
+      </c>
+      <c r="CV5">
+        <v>0.8607217367051661</v>
+      </c>
+      <c r="CW5">
+        <v>0.8975721819105528</v>
+      </c>
+      <c r="CX5">
+        <v>0.9468014775878095</v>
+      </c>
+      <c r="CY5">
+        <v>0.9469314183457711</v>
+      </c>
+      <c r="CZ5">
+        <v>0.9472885591268739</v>
+      </c>
+      <c r="DA5">
+        <v>0.9519097320752338</v>
+      </c>
+      <c r="DB5">
+        <v>0.9599181923354663</v>
+      </c>
+      <c r="DC5">
+        <v>0.9820654804745099</v>
+      </c>
+      <c r="DD5">
+        <v>0.9939893244559882</v>
+      </c>
+      <c r="DE5">
+        <v>0.9968660659466152</v>
+      </c>
+      <c r="DF5">
+        <v>0.9970521543022813</v>
+      </c>
+      <c r="DG5">
+        <v>0.9980742147985582</v>
+      </c>
+      <c r="DH5">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:67">
-      <c r="A5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0.001637087624340661</v>
-      </c>
-      <c r="AJ5">
-        <v>0.03869089897813384</v>
-      </c>
-      <c r="AK5">
-        <v>0.06382918664379798</v>
-      </c>
-      <c r="AL5">
-        <v>0.07478032949282283</v>
-      </c>
-      <c r="AM5">
-        <v>0.0777860462548845</v>
-      </c>
-      <c r="AN5">
-        <v>0.1033300806578997</v>
-      </c>
-      <c r="AO5">
-        <v>0.1089746094151341</v>
-      </c>
-      <c r="AP5">
-        <v>0.1095700447691258</v>
-      </c>
-      <c r="AQ5">
-        <v>0.125721562760216</v>
-      </c>
-      <c r="AR5">
-        <v>0.1294672589332345</v>
-      </c>
-      <c r="AS5">
-        <v>0.2254501890927241</v>
-      </c>
-      <c r="AT5">
-        <v>0.2979033466768479</v>
-      </c>
-      <c r="AU5">
-        <v>0.298015738464199</v>
-      </c>
-      <c r="AV5">
-        <v>0.3336605169096503</v>
-      </c>
-      <c r="AW5">
-        <v>0.3754684620802305</v>
-      </c>
-      <c r="AX5">
-        <v>0.4593253582002703</v>
-      </c>
-      <c r="AY5">
-        <v>0.5593831327518773</v>
-      </c>
-      <c r="AZ5">
-        <v>0.570816779780016</v>
-      </c>
-      <c r="BA5">
-        <v>0.6180655000692219</v>
-      </c>
-      <c r="BB5">
-        <v>0.7053649391019445</v>
-      </c>
-      <c r="BC5">
-        <v>0.7313476563316845</v>
-      </c>
-      <c r="BD5">
-        <v>0.7680791319188132</v>
-      </c>
-      <c r="BE5">
-        <v>0.831797907048656</v>
-      </c>
-      <c r="BF5">
-        <v>0.8524340364767732</v>
-      </c>
-      <c r="BG5">
-        <v>0.8531069100339295</v>
-      </c>
-      <c r="BH5">
-        <v>0.8531122307196263</v>
-      </c>
-      <c r="BI5">
-        <v>0.8533119896941521</v>
-      </c>
-      <c r="BJ5">
-        <v>0.8609079440263636</v>
-      </c>
-      <c r="BK5">
-        <v>0.8969740330850811</v>
-      </c>
-      <c r="BL5">
-        <v>0.9436932436310604</v>
-      </c>
-      <c r="BM5">
-        <v>0.9778882911622904</v>
-      </c>
-      <c r="BN5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BO5">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:67">
+    <row r="6" spans="1:112">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3014,100 +4631,235 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.03121886024713409</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.09837221358397627</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.09889733413433997</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.1032414465454858</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.1294005052835933</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.1294377078635267</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.1334457292923416</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.1389313533853619</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.1409007697006209</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.2261452197918482</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.2904221507014889</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.2968241978196162</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.3377256876619845</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.3875365094548711</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.4839786663523608</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.5842192109443417</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.5871765886565143</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.6799983775062263</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.7356794504420149</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.7522800480127418</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.7924625579083859</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.8359447477211244</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.8393330657260095</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.8393669220413947</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.839619781937916</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.8401105959495025</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.8594561375384516</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.9118476556855911</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.9587135639815199</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.9877176590567071</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.9981836412737194</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.9999999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0.1173126306627691</v>
+      </c>
+      <c r="CD6">
+        <v>0.1543354216319593</v>
+      </c>
+      <c r="CE6">
+        <v>0.189089335184958</v>
+      </c>
+      <c r="CF6">
+        <v>0.1894982233293517</v>
+      </c>
+      <c r="CG6">
+        <v>0.213846244197517</v>
+      </c>
+      <c r="CH6">
+        <v>0.2147644346756916</v>
+      </c>
+      <c r="CI6">
+        <v>0.2567866108500829</v>
+      </c>
+      <c r="CJ6">
+        <v>0.2951356070901592</v>
+      </c>
+      <c r="CK6">
+        <v>0.3228587625408396</v>
+      </c>
+      <c r="CL6">
+        <v>0.326806894884262</v>
+      </c>
+      <c r="CM6">
+        <v>0.347387874517981</v>
+      </c>
+      <c r="CN6">
+        <v>0.3742383140104132</v>
+      </c>
+      <c r="CO6">
+        <v>0.4845794151557775</v>
+      </c>
+      <c r="CP6">
+        <v>0.4871664927976941</v>
+      </c>
+      <c r="CQ6">
+        <v>0.5058100016346124</v>
+      </c>
+      <c r="CR6">
+        <v>0.5822979291813536</v>
+      </c>
+      <c r="CS6">
+        <v>0.7023077177516397</v>
+      </c>
+      <c r="CT6">
+        <v>0.7036248251126106</v>
+      </c>
+      <c r="CU6">
+        <v>0.7848501513367647</v>
+      </c>
+      <c r="CV6">
+        <v>0.7914304478417588</v>
+      </c>
+      <c r="CW6">
+        <v>0.8025940486954954</v>
+      </c>
+      <c r="CX6">
+        <v>0.8870209521568467</v>
+      </c>
+      <c r="CY6">
+        <v>0.8915389397360396</v>
+      </c>
+      <c r="CZ6">
+        <v>0.9055223975579871</v>
+      </c>
+      <c r="DA6">
+        <v>0.9079259301590538</v>
+      </c>
+      <c r="DB6">
+        <v>0.9091951301325057</v>
+      </c>
+      <c r="DC6">
+        <v>0.9445532147234276</v>
+      </c>
+      <c r="DD6">
+        <v>0.9447046426100877</v>
+      </c>
+      <c r="DE6">
+        <v>0.9785817753677973</v>
+      </c>
+      <c r="DF6">
+        <v>0.9785817753677973</v>
+      </c>
+      <c r="DG6">
+        <v>0.9951578534324282</v>
+      </c>
+      <c r="DH6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3125,302 +4877,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>0.02306836361239761</v>
+        <v>0.1453925105575451</v>
       </c>
       <c r="F2">
-        <v>0.596582000306092</v>
+        <v>0.5106050516928226</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L2">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>0.02135858452921387</v>
+        <v>0.1970717742414564</v>
       </c>
       <c r="F3">
-        <v>0.5340049508014282</v>
+        <v>0.5568440550347502</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L3">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="E4">
-        <v>0.01972187691391836</v>
+        <v>0.1786824025920854</v>
       </c>
       <c r="F4">
-        <v>0.5319100079963629</v>
+        <v>0.5388171347569271</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L4">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="E5">
-        <v>0.03869089897813384</v>
+        <v>0.1537507911295412</v>
       </c>
       <c r="F5">
-        <v>0.5593831327518773</v>
+        <v>0.5145234285177845</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L5">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.03121886024713409</v>
+        <v>0.1173126306627691</v>
       </c>
       <c r="F6">
-        <v>0.5842192109443417</v>
+        <v>0.5058100016346124</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L6">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3438,302 +5175,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>0.02306836361239761</v>
+        <v>0.1453925105575451</v>
       </c>
       <c r="F2">
-        <v>0.7043393768221329</v>
+        <v>0.8064161902822097</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L2">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E3">
-        <v>0.02135858452921387</v>
+        <v>0.1970717742414564</v>
       </c>
       <c r="F3">
-        <v>0.7039598124323585</v>
+        <v>0.7607678063628738</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L3">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>0.01972187691391836</v>
+        <v>0.1786824025920854</v>
       </c>
       <c r="F4">
-        <v>0.7081243036355388</v>
+        <v>0.7529777469039163</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L4">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="E5">
-        <v>0.03869089897813384</v>
+        <v>0.1537507911295412</v>
       </c>
       <c r="F5">
-        <v>0.7053649391019445</v>
+        <v>0.7196434438728455</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L5">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E6">
-        <v>0.03121886024713409</v>
+        <v>0.1173126306627691</v>
       </c>
       <c r="F6">
-        <v>0.7356794504420149</v>
+        <v>0.7023077177516397</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L6">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3751,302 +5473,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>0.02306836361239761</v>
+        <v>0.1453925105575451</v>
       </c>
       <c r="F2">
-        <v>0.8049735024661134</v>
+        <v>0.8064161902822097</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L2">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="E3">
-        <v>0.02135858452921387</v>
+        <v>0.1970717742414564</v>
       </c>
       <c r="F3">
-        <v>0.8343799137908813</v>
+        <v>0.8264171444144967</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L3">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="E4">
-        <v>0.01972187691391836</v>
+        <v>0.1786824025920854</v>
       </c>
       <c r="F4">
-        <v>0.8691233867217083</v>
+        <v>0.8010635052779557</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L4">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.03869089897813384</v>
+        <v>0.1537507911295412</v>
       </c>
       <c r="F5">
-        <v>0.831797907048656</v>
+        <v>0.8208966124922724</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L5">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0.03121886024713409</v>
+        <v>0.1173126306627691</v>
       </c>
       <c r="F6">
-        <v>0.8359447477211244</v>
+        <v>0.8025940486954954</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L6">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4064,302 +5771,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>0.02306836361239761</v>
+        <v>0.1453925105575451</v>
       </c>
       <c r="F2">
-        <v>0.908610019498491</v>
+        <v>0.9412727444726454</v>
       </c>
       <c r="G2">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L2">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>0.02135858452921387</v>
+        <v>0.1970717742414564</v>
       </c>
       <c r="F3">
-        <v>0.9543842532785238</v>
+        <v>0.9280961386501149</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L3">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.01972187691391836</v>
+        <v>0.1786824025920854</v>
       </c>
       <c r="F4">
-        <v>0.9512561323573819</v>
+        <v>0.9258099661317872</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L4">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="E5">
-        <v>0.03869089897813384</v>
+        <v>0.1537507911295412</v>
       </c>
       <c r="F5">
-        <v>0.9436932436310604</v>
+        <v>0.9468014775878095</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L5">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="E6">
-        <v>0.03121886024713409</v>
+        <v>0.1173126306627691</v>
       </c>
       <c r="F6">
-        <v>0.9118476556855911</v>
+        <v>0.9055223975579871</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L6">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
